--- a/API/Resources/Template/StorageSumReport.xlsx
+++ b/API/Resources/Template/StorageSumReport.xlsx
@@ -589,6 +589,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyymmddhhmmssAM/PM"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -667,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,6 +691,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,7 +1037,7 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
